--- a/biology/Biochimie/Virginijus_Šikšnys/Virginijus_Šikšnys.xlsx
+++ b/biology/Biochimie/Virginijus_Šikšnys/Virginijus_Šikšnys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virginijus_%C5%A0ik%C5%A1nys</t>
+          <t>Virginijus_Šikšnys</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Virginijus Šikšnys, né le 26 janvier 1956 à Šiauliai, est un biochimiste lituanien.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Virginijus_%C5%A0ik%C5%A1nys</t>
+          <t>Virginijus_Šikšnys</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la chimie organique à l'université de Vilnius, puis à l'université d'État de Moscou, dont il est candidat ès sciences (équivalent d'un doctorat) en 1983.
 Il travaille à l'Institut d'enzymologie appliquée de Vilnius de 1982 à 1993, puis, après deux ans passés dans le laboratoire de Robert Huber à l'Institut Max-Planck de Martinsried, près de Munich, il prend la tête du Département des interactions ADN-protéines de l'Institut de biotechnologie de l'université de Vilnius. En 2006, il devient professeur de l'université de Vilnius et membre de l'Académie des sciences de Lituanie.
-En 2018, il reçoit le prix Kavli en nanosciences, conjointement avec Emmanuelle Charpentier et Jennifer Doudna, « pour l'invention de CRISPR-Cas9, un nano-outil précis d'édition de l'ADN qui a révolutionné la biologie, l'agriculture et la médecine »[1].
+En 2018, il reçoit le prix Kavli en nanosciences, conjointement avec Emmanuelle Charpentier et Jennifer Doudna, « pour l'invention de CRISPR-Cas9, un nano-outil précis d'édition de l'ADN qui a révolutionné la biologie, l'agriculture et la médecine ».
 </t>
         </is>
       </c>
